--- a/assets/examples/xlsx/RS0002SimpleExampleFile.a205.xlsx
+++ b/assets/examples/xlsx/RS0002SimpleExampleFile.a205.xlsx
@@ -88,90 +88,160 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A22" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B29" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
       <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
+    <comment authorId="0" ref="B38" shapeId="0">
       <text>
         <t>Name of the outdoor unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B39" shapeId="0">
       <text>
         <t>Model number of the outdoor unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B40" shapeId="0">
       <text>
         <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B41" shapeId="0">
       <text>
         <t>Model number of the indoor unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment authorId="0" ref="B42" shapeId="0">
       <text>
         <t>Type of refrigerant</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment authorId="0" ref="B43" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate leaving the indoor coil used to scale the flow ratios in the PerformanceMap</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B46" shapeId="0">
       <text>
         <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
+    <comment authorId="0" ref="A47" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment authorId="0" ref="A48" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -203,7 +273,7 @@
     </comment>
     <comment authorId="0" ref="B3" shapeId="0">
       <text>
-        <t>Wet bulb temperature of the air entering the indoor coil</t>
+        <t>Relative humidity of the air entering the indoor coil</t>
       </text>
     </comment>
     <comment authorId="0" ref="C3" shapeId="0">
@@ -213,7 +283,7 @@
     </comment>
     <comment authorId="0" ref="D3" shapeId="0">
       <text>
-        <t>Ratio of the volumetric air flow rate over the indoor coil to the nominal volumetric air flow rate</t>
+        <t>Mass flow rate of air entering the indoor coil</t>
       </text>
     </comment>
     <comment authorId="0" ref="E3" shapeId="0">
@@ -564,7 +634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,12 +695,12 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RS0002</t>
+          <t>PPR2</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -659,12 +729,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+          <t>RS0002</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -676,12 +746,12 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019-09-13T00:00Z</t>
+          <t>Simple Example File</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -693,71 +763,87 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A205DV-1</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>data_timestamp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Simple Example File</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>2019-09-13T00:00Z</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Committee</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Committee</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Example File - not for use in simulation</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>This is a simple example of a JSON file for RS0002 - this file should not be used for simulation</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -765,57 +851,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                outdoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ColdAirInc</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>AC.2019.01</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_manufacturer</t>
+          <t xml:space="preserve">                manufacturer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -823,51 +895,62 @@
           <t>ColdAirInc</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n"/>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_model_number</t>
+          <t xml:space="preserve">                model_number</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AC.2019.02</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
+          <t>AC.2019.01</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                refrigerant_type</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>R410A</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_type</t>
+          <t xml:space="preserve">            fan_position</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SCROLL</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t>BLOW_THROUGH</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -877,31 +960,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_control_method</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">            fan_position</t>
+          <t xml:space="preserve">                    standard_version</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BLOW_THROUGH</t>
+          <t>PPR2</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -913,15 +987,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>m3/s</t>
+          <t xml:space="preserve">                    schema_version</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -933,65 +1004,347 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">            cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+          <t xml:space="preserve">                    RS_ID</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RS0004</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    description</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Simple Example File</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ID</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bcf8b859-67a3-42f4-8f8d-4e57af1ccf22</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_timestamp</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019-09-13T00:00Z</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_version</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_source</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Committee</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    disclaimer</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Example File - not for use in simulation</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    notes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>This is a simple example of a JSON file for RS0002 - this file should not be used for simulation</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AC.2019.01</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AC.2019.02</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    refrigerant_type</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>R410A</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    compressor_type</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SCROLL</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                compressor_control_method</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>0.25</v>
       </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>$performance_map_cooling</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+      <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1016,7 +1369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1393,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_entering_wet_bulb_temperature</t>
+          <t>indoor_coil_entering_relative_humidity</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -1050,7 +1403,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_volumetric_flow_ratio</t>
+          <t>indoor_coil_air_mass_flow_rate</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -1087,17 +1440,17 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kg/s</t>
         </is>
       </c>
       <c r="E4" s="4" t="n"/>
@@ -1127,7 +1480,7 @@
         <v>302.55</v>
       </c>
       <c r="B5" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>300.15</v>
@@ -1156,7 +1509,7 @@
         <v>302.55</v>
       </c>
       <c r="B6" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>300.15</v>
@@ -1185,7 +1538,7 @@
         <v>302.55</v>
       </c>
       <c r="B7" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>302.15</v>
@@ -1214,7 +1567,7 @@
         <v>302.55</v>
       </c>
       <c r="B8" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>302.15</v>
@@ -1243,7 +1596,7 @@
         <v>302.55</v>
       </c>
       <c r="B9" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
         <v>300.15</v>
@@ -1272,7 +1625,7 @@
         <v>302.55</v>
       </c>
       <c r="B10" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
         <v>300.15</v>
@@ -1301,7 +1654,7 @@
         <v>302.55</v>
       </c>
       <c r="B11" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>302.15</v>
@@ -1330,7 +1683,7 @@
         <v>302.55</v>
       </c>
       <c r="B12" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
         <v>302.15</v>
@@ -1359,7 +1712,7 @@
         <v>302.55</v>
       </c>
       <c r="B13" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>300.15</v>
@@ -1388,7 +1741,7 @@
         <v>302.55</v>
       </c>
       <c r="B14" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>300.15</v>
@@ -1417,7 +1770,7 @@
         <v>302.55</v>
       </c>
       <c r="B15" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>302.15</v>
@@ -1446,7 +1799,7 @@
         <v>302.55</v>
       </c>
       <c r="B16" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>302.15</v>
@@ -1475,7 +1828,7 @@
         <v>308.15</v>
       </c>
       <c r="B17" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>300.15</v>
@@ -1504,7 +1857,7 @@
         <v>308.15</v>
       </c>
       <c r="B18" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>300.15</v>
@@ -1533,7 +1886,7 @@
         <v>308.15</v>
       </c>
       <c r="B19" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>302.15</v>
@@ -1562,7 +1915,7 @@
         <v>308.15</v>
       </c>
       <c r="B20" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>302.15</v>
@@ -1591,7 +1944,7 @@
         <v>308.15</v>
       </c>
       <c r="B21" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="n">
         <v>300.15</v>
@@ -1620,7 +1973,7 @@
         <v>308.15</v>
       </c>
       <c r="B22" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C22" t="n">
         <v>300.15</v>
@@ -1649,7 +2002,7 @@
         <v>308.15</v>
       </c>
       <c r="B23" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C23" t="n">
         <v>302.15</v>
@@ -1678,7 +2031,7 @@
         <v>308.15</v>
       </c>
       <c r="B24" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C24" t="n">
         <v>302.15</v>
@@ -1707,7 +2060,7 @@
         <v>308.15</v>
       </c>
       <c r="B25" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>300.15</v>
@@ -1736,7 +2089,7 @@
         <v>308.15</v>
       </c>
       <c r="B26" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>300.15</v>
@@ -1765,7 +2118,7 @@
         <v>308.15</v>
       </c>
       <c r="B27" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>302.15</v>
@@ -1794,7 +2147,7 @@
         <v>308.15</v>
       </c>
       <c r="B28" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>302.15</v>
@@ -1823,7 +2176,7 @@
         <v>313.75</v>
       </c>
       <c r="B29" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>300.15</v>
@@ -1852,7 +2205,7 @@
         <v>313.75</v>
       </c>
       <c r="B30" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>300.15</v>
@@ -1881,7 +2234,7 @@
         <v>313.75</v>
       </c>
       <c r="B31" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>302.15</v>
@@ -1910,7 +2263,7 @@
         <v>313.75</v>
       </c>
       <c r="B32" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>302.15</v>
@@ -1939,7 +2292,7 @@
         <v>313.75</v>
       </c>
       <c r="B33" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C33" t="n">
         <v>300.15</v>
@@ -1968,7 +2321,7 @@
         <v>313.75</v>
       </c>
       <c r="B34" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C34" t="n">
         <v>300.15</v>
@@ -1997,7 +2350,7 @@
         <v>313.75</v>
       </c>
       <c r="B35" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C35" t="n">
         <v>302.15</v>
@@ -2026,7 +2379,7 @@
         <v>313.75</v>
       </c>
       <c r="B36" t="n">
-        <v>290.35</v>
+        <v>0.5</v>
       </c>
       <c r="C36" t="n">
         <v>302.15</v>
@@ -2055,7 +2408,7 @@
         <v>313.75</v>
       </c>
       <c r="B37" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>300.15</v>
@@ -2084,7 +2437,7 @@
         <v>313.75</v>
       </c>
       <c r="B38" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>300.15</v>
@@ -2113,7 +2466,7 @@
         <v>313.75</v>
       </c>
       <c r="B39" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>302.15</v>
@@ -2142,7 +2495,7 @@
         <v>313.75</v>
       </c>
       <c r="B40" t="n">
-        <v>292.55</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>302.15</v>
@@ -2189,7 +2542,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/examples/xlsx/RS0002SimpleExampleFile.a205.xlsx
+++ b/assets/examples/xlsx/RS0002SimpleExampleFile.a205.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="performance_map_cooling" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="performance_map_standby" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS0004.performance_map_cooling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS0004.performance_map_standby" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -136,14 +136,24 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A16" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Manufacturer name</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Model number</t>
+        <t>Model number for this chiller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Continuous unit power draw regardless of whether the fan or DX system are operating.</t>
       </text>
     </comment>
     <comment authorId="0" ref="A22" shapeId="0">
@@ -201,47 +211,52 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A36" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B38" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
+        <t>Model number of the outdoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B39" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Name of the indoor unit manufacturer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B40" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Model number of the indoor unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B41" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
+        <t>Type of refrigerant</t>
       </text>
     </comment>
     <comment authorId="0" ref="B42" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B43" shapeId="0">
-      <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+    <comment authorId="0" ref="B45" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A46" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
     <comment authorId="0" ref="A47" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A48" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -328,7 +343,7 @@
     </comment>
     <comment authorId="0" ref="B2" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for standby performance</t>
+        <t>Data group defining the lookup variables for standby performance</t>
       </text>
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
@@ -634,7 +649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -871,28 +886,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer</t>
+          <t xml:space="preserve">            model_number</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ColdAirInc</t>
+          <t>AC.2019.01</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -902,38 +926,33 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>AC.2019.01</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standby_power</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>999</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">            fan_position</t>
+          <t xml:space="preserve">        fan_position</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -941,28 +960,20 @@
           <t>BLOW_THROUGH</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
@@ -970,7 +981,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    standard_version</t>
+          <t xml:space="preserve">                standard_version</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -987,7 +998,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1004,7 +1015,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                RS_ID</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1021,7 +1032,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1038,7 +1049,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                ID</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1055,7 +1066,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1072,7 +1083,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1087,7 +1098,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1100,7 +1111,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1113,7 +1124,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1126,7 +1137,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1138,7 +1149,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E35" s="3" t="n"/>
@@ -1146,15 +1157,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ColdAirInc</t>
         </is>
       </c>
       <c r="E37" s="3" t="n"/>
@@ -1162,46 +1178,38 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ColdAirInc</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>AC.2019.01</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
+          <t xml:space="preserve">                            indoor_unit_manufacturer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AC.2019.01</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>ColdAirInc</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ColdAirInc</t>
+          <t>AC.2019.02</t>
         </is>
       </c>
       <c r="E40" s="3" t="n"/>
@@ -1209,12 +1217,12 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+          <t xml:space="preserve">                            refrigerant_type</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AC.2019.02</t>
+          <t>R410A</t>
         </is>
       </c>
       <c r="E41" s="3" t="n"/>
@@ -1222,66 +1230,63 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    refrigerant_type</t>
+          <t xml:space="preserve">                            compressor_type</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R410A</t>
+          <t>SCROLL</t>
         </is>
       </c>
       <c r="E42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    compressor_type</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SCROLL</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance</t>
         </is>
       </c>
       <c r="E43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        compressor_control_method</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DYNAMIC</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                compressor_control_method</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DYNAMIC</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                        cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.25</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$RS0004.performance_map_cooling</t>
+        </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
@@ -1292,32 +1297,15 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$RS0004.performance_map_standby</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1329,7 +1317,7 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
@@ -1338,12 +1326,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1369,7 +1357,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>
